--- a/MainTop/17.08.2024/ozon max/имена_test.xlsx
+++ b/MainTop/17.08.2024/ozon max/имена_test.xlsx
@@ -167,7 +167,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -236,7 +236,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,7 +269,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -302,7 +302,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,7 +335,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
